--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,6 +601,48 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>wire parts</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1994-07-07</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>vellore</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sandy</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>DImple</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,32 +614,116 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sandy</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sandy</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>vellore</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Sandy</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>DImple</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>CCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mandy</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16:01</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
